--- a/docs/DatosConSeguridad.xlsx
+++ b/docs/DatosConSeguridad.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Dropbox (Personal)\Universidad\Infracomp\Casos\Infracomp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\InfraComp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Carga 80 - 2 threads" sheetId="9" r:id="rId8"/>
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>#threads</t>
   </si>
@@ -87,11 +87,44 @@
   <si>
     <t>tiempo actualizacion (ms)</t>
   </si>
+  <si>
+    <t>Observaciones:</t>
+  </si>
+  <si>
+    <t>Sobre las graficas se puede observar que con un mayor numero de threads</t>
+  </si>
+  <si>
+    <t>se obtienen tiempos mejores, dado que pueden encargarse paralelamente</t>
+  </si>
+  <si>
+    <t>de la comunicación con el servidor en vez de esperar que algun thread termine</t>
+  </si>
+  <si>
+    <t>para seguir con la comunicación.</t>
+  </si>
+  <si>
+    <t>Adicionalmente en estas graficas se denota un mayor numero de fallas cuando</t>
+  </si>
+  <si>
+    <t>se disminuyen los threads, el rendimiento tanto en esta grafica como en</t>
+  </si>
+  <si>
+    <t>la anterior se obtienen porcentajes similares, siendo mas cerrado el dominio</t>
+  </si>
+  <si>
+    <t>de variacion  en los 8 threads del pool.</t>
+  </si>
+  <si>
+    <t>de variacion  en los 2 threads del pool.</t>
+  </si>
+  <si>
+    <t>El rendimiento tanto en esta grafica como en</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +171,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,7 +232,13 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,7 +258,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -246,6 +297,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -376,7 +428,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -477,7 +529,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -578,7 +630,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -592,11 +644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408378544"/>
-        <c:axId val="-408389424"/>
+        <c:axId val="316343352"/>
+        <c:axId val="316342960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408378544"/>
+        <c:axId val="316343352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,6 +696,3184 @@
                   <a:t> Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316342960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316342960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> autenticación(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316343352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 200: Tiempo de autenticación vs Porcentaje</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.10730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12559999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A957-4C47-A390-B19E2F9EDC8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350385144"/>
+        <c:axId val="350384752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350385144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de autenticacion</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350384752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350384752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> CPU</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350385144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> # threads vs Tiempo autenticación(ms) </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09F5-443E-AF33-A4B6D1C321CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09F5-443E-AF33-A4B6D1C321CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09F5-443E-AF33-A4B6D1C321CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350383968"/>
+        <c:axId val="350382400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350383968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350382400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350382400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo autenticación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350383968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> #threads vs #transacciones perdidas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3E3-406D-8BF0-0568014D5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3E3-406D-8BF0-0568014D5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3E3-406D-8BF0-0568014D5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350382008"/>
+        <c:axId val="350381224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350382008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350381224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350381224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de transacciones perdidas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350382008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> #threads vs Porcentaje CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8599999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7800000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFB8-40DC-BF34-AD51FE329484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2299999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFB8-40DC-BF34-AD51FE329484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11890000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFB8-40DC-BF34-AD51FE329484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350385536"/>
+        <c:axId val="350386712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350385536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N° de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350386712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350386712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Porcentaje CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350385536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80: Tiempo autenticación vs Porcentaje CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2299999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0956-4E55-937A-78A78DC4F632}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350387104"/>
+        <c:axId val="350380048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350387104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo autenticación(ms)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -713,12 +3943,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408389424"/>
+        <c:crossAx val="350380048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408389424"/>
+        <c:axId val="350380048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,13 +3989,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo</a:t>
+                  <a:t>Porcentaje CPU</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> autenticación(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -798,7 +4023,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -835,7 +4060,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408378544"/>
+        <c:crossAx val="350387104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,37 +4072,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -915,8 +4109,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -950,13 +4144,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Carga 200: Tiempo de autenticación vs Porcentaje</a:t>
+              <a:t>Carga</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> CPU</a:t>
+              <a:t> 80: Tiempo de autenticación vs Porcentaje CPU</a:t>
             </a:r>
-            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1022,77 +4215,86 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$C$4:$C$12</c:f>
+              <c:f>'Carga 80 - 8 threads'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11463</c:v>
+                  <c:v>3617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10534</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11525</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12424</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11273</c:v>
+                  <c:v>2841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11599</c:v>
+                  <c:v>3018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11976</c:v>
+                  <c:v>1648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12227</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10678</c:v>
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$F$4:$F$11</c:f>
+              <c:f>'Carga 80 - 8 threads'!$F$4:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.10730000000000001</c:v>
+                  <c:v>9.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10580000000000001</c:v>
+                  <c:v>0.1273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1178</c:v>
+                  <c:v>0.1193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1045</c:v>
+                  <c:v>0.1023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1038</c:v>
+                  <c:v>9.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1138</c:v>
+                  <c:v>0.11264</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.11890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A957-4C47-A390-B19E2F9EDC8D}"/>
+              <c16:uniqueId val="{00000000-C2C9-402A-9CA8-7DD20222B8C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1104,11 +4306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407700464"/>
-        <c:axId val="-407697744"/>
+        <c:axId val="349784664"/>
+        <c:axId val="349784272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407700464"/>
+        <c:axId val="349784664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,13 +4351,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo</a:t>
+                  <a:t>Tiempo de autenticacion(ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> de autenticacion</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1225,12 +4422,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407697744"/>
+        <c:crossAx val="349784272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407697744"/>
+        <c:axId val="349784272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,3134 +4544,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407700464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga 80:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> # threads vs Tiempo autenticación(ms) </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18283</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18038</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17161</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09F5-443E-AF33-A4B6D1C321CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11715</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7434</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8463</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6119</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9510</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09F5-443E-AF33-A4B6D1C321CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3617</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1385</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-09F5-443E-AF33-A4B6D1C321CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-407708080"/>
-        <c:axId val="-407699920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-407708080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> de threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-407699920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-407699920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo autenticación</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-407708080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga 80:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> #threads vs #transacciones perdidas</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3E3-406D-8BF0-0568014D5585}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$E$4:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F3E3-406D-8BF0-0568014D5585}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$E$4:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F3E3-406D-8BF0-0568014D5585}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-369414352"/>
-        <c:axId val="-369423056"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-369414352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> de threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-369423056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-369423056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> de transacciones perdidas</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-369414352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga 80:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> #threads vs Porcentaje CPU</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 1 thread'!$G$4:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1062</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7199999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8599999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.7800000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFB8-40DC-BF34-AD51FE329484}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.2299999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFB8-40DC-BF34-AD51FE329484}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.10829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11890000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFB8-40DC-BF34-AD51FE329484}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391219800"/>
-        <c:axId val="391229312"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391219800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N° de</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391229312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391229312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Porcentaje CPU</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391219800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga 80: Tiempo autenticación vs Porcentaje CPU</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11715</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7434</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8463</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6119</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9510</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 2 threads'!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.2299999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0956-4E55-937A-78A78DC4F632}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="328289560"/>
-        <c:axId val="328292184"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="328289560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo autenticación(ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="328292184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="328292184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Porcentaje CPU</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="328289560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> 80: Tiempo de autenticación vs Porcentaje CPU</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3617</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2841</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1648</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1937</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2856</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 80 - 8 threads'!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.10829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11890000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2C9-402A-9CA8-7DD20222B8C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391215536"/>
-        <c:axId val="391208648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391215536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo de autenticacion(ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391208648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391208648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Porcentaje</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> CPU</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391215536"/>
+        <c:crossAx val="349784664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4524,7 +4594,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4568,6 +4638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4698,7 +4769,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -4799,7 +4870,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -4900,7 +4971,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -4914,11 +4985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408383440"/>
-        <c:axId val="-408381264"/>
+        <c:axId val="316345312"/>
+        <c:axId val="316345704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408383440"/>
+        <c:axId val="316345312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,6 +5040,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5035,12 +5107,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408381264"/>
+        <c:crossAx val="316345704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408381264"/>
+        <c:axId val="316345704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,6 +5163,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5157,7 +5230,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408383440"/>
+        <c:crossAx val="316345312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5171,6 +5244,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5238,7 +5312,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5277,6 +5351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5407,7 +5482,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -5508,7 +5583,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -5609,7 +5684,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -5623,11 +5698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408391056"/>
-        <c:axId val="-408380176"/>
+        <c:axId val="349789760"/>
+        <c:axId val="349787408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408391056"/>
+        <c:axId val="349789760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,13 +5726,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-408380176"/>
+        <c:crossAx val="349787408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408380176"/>
+        <c:axId val="349787408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5703,6 +5778,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5769,7 +5845,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408391056"/>
+        <c:crossAx val="349789760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5783,6 +5859,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5850,7 +5927,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5894,6 +5971,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6021,7 +6099,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F434-4E38-8F66-8468359604B0}"/>
             </c:ext>
@@ -6035,11 +6113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408382352"/>
-        <c:axId val="-408388880"/>
+        <c:axId val="349790936"/>
+        <c:axId val="349783880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408382352"/>
+        <c:axId val="349790936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,6 +6168,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6156,12 +6235,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408388880"/>
+        <c:crossAx val="349783880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408388880"/>
+        <c:axId val="349783880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,6 +6291,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6278,7 +6358,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408382352"/>
+        <c:crossAx val="349790936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6328,7 +6408,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6372,6 +6452,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6499,7 +6580,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA71-49F2-9AD0-6BB109E1652A}"/>
             </c:ext>
@@ -6513,11 +6594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408379088"/>
-        <c:axId val="-408386160"/>
+        <c:axId val="349790544"/>
+        <c:axId val="349787800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408379088"/>
+        <c:axId val="349790544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,6 +6649,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6634,12 +6716,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408386160"/>
+        <c:crossAx val="349787800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408386160"/>
+        <c:axId val="349787800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6685,6 +6767,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6751,7 +6834,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408379088"/>
+        <c:crossAx val="349790544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6801,7 +6884,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6845,6 +6928,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6975,7 +7059,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -7076,7 +7160,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -7177,7 +7261,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -7191,11 +7275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408388336"/>
-        <c:axId val="-408387792"/>
+        <c:axId val="349788584"/>
+        <c:axId val="349785056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408388336"/>
+        <c:axId val="349788584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7246,6 +7330,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7312,12 +7397,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408387792"/>
+        <c:crossAx val="349785056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-408387792"/>
+        <c:axId val="349785056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7363,6 +7448,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7429,7 +7515,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408388336"/>
+        <c:crossAx val="349788584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7443,6 +7529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7510,7 +7597,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7554,6 +7641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7684,7 +7772,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -7785,7 +7873,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -7886,7 +7974,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -7900,11 +7988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-408384528"/>
-        <c:axId val="-407701552"/>
+        <c:axId val="349785448"/>
+        <c:axId val="349786232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-408384528"/>
+        <c:axId val="349785448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7955,6 +8043,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8021,12 +8110,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407701552"/>
+        <c:crossAx val="349786232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407701552"/>
+        <c:axId val="349786232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,6 +8166,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8143,7 +8233,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-408384528"/>
+        <c:crossAx val="349785448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8157,6 +8247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8224,7 +8315,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8268,6 +8359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8410,7 +8502,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -8523,7 +8615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -8630,7 +8722,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -8644,11 +8736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407695568"/>
-        <c:axId val="-407702640"/>
+        <c:axId val="350384360"/>
+        <c:axId val="350380440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407695568"/>
+        <c:axId val="350384360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8699,6 +8791,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8765,12 +8858,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407702640"/>
+        <c:crossAx val="350380440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407702640"/>
+        <c:axId val="350380440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8816,6 +8909,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8882,7 +8976,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407695568"/>
+        <c:crossAx val="350384360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8896,6 +8990,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8963,7 +9058,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9007,6 +9102,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9134,7 +9230,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72C6-4518-AB49-E332A1C1B12D}"/>
             </c:ext>
@@ -9148,11 +9244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407706448"/>
-        <c:axId val="-407708624"/>
+        <c:axId val="350382792"/>
+        <c:axId val="350387496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407706448"/>
+        <c:axId val="350382792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,6 +9294,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9264,12 +9361,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407708624"/>
+        <c:crossAx val="350387496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407708624"/>
+        <c:axId val="350387496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9320,6 +9417,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9386,7 +9484,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407706448"/>
+        <c:crossAx val="350382792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18567,10 +18665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:H36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18852,10 +18950,61 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="12"/>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19351,10 +19500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F14"/>
+  <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F32" sqref="F32:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19365,6 +19514,7 @@
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -19603,7 +19753,95 @@
         <v>9.3299999999999994E-2</v>
       </c>
     </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20125,10 +20363,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20374,7 +20612,85 @@
         <v>8.7800000000000003E-2</v>
       </c>
     </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
